--- a/实训一/NFS文件系统.xlsx
+++ b/实训一/NFS文件系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28245" windowHeight="12540"/>
+    <workbookView windowWidth="23445" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="NFS文件系统部署" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="DejaVu Sans Mono"/>
+        <charset val="134"/>
+      </rPr>
       <t>rpcbind</t>
     </r>
     <r>
@@ -220,7 +226,7 @@
     <t>/data 172.16.1.0/24(rw,sync)</t>
   </si>
   <si>
-    <t>/oldboy 172.16.1.0/24(ro,sync,anonuid=888,anongid=888)</t>
+    <t>/boy 172.16.1.0/24(ro,sync,anonuid=888,anongid=888)</t>
   </si>
   <si>
     <t>测试挂载</t>
@@ -453,11 +459,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,13 +479,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="黑体"/>
@@ -495,13 +494,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="DejaVu Sans Mono"/>
       <charset val="134"/>
     </font>
@@ -520,13 +512,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -534,10 +519,64 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -557,35 +596,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -593,33 +603,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -639,6 +627,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -654,37 +656,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -718,14 +689,8 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="44">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -800,6 +765,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -818,61 +837,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,97 +909,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,6 +947,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1029,15 +982,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1001,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1072,30 +1036,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1104,166 +1044,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1313,42 +1242,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1360,31 +1286,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1738,7 +1655,7 @@
   <dimension ref="A1:X12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6:T7"/>
+      <selection activeCell="O5" sqref="O5:T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1829,26 +1746,26 @@
       <c r="I3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="29" t="s">
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30" t="s">
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
-      <c r="U3" s="39" t="s">
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="40"/>
-      <c r="W3" s="40"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
     </row>
     <row r="4" ht="45.75" customHeight="1" spans="1:23">
       <c r="A4" s="22" t="s">
@@ -1863,29 +1780,29 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="23"/>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="29" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="39" t="s">
+      <c r="P4" s="29"/>
+      <c r="Q4" s="29"/>
+      <c r="R4" s="29"/>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29"/>
+      <c r="U4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
     </row>
     <row r="5" ht="45.75" customHeight="1" spans="1:23">
       <c r="A5" s="24" t="s">
@@ -1900,27 +1817,27 @@
       <c r="F5" s="23"/>
       <c r="G5" s="23"/>
       <c r="H5" s="23"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="29" t="s">
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="M5" s="29"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28"/>
+      <c r="O5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="41" t="s">
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" ht="32.25" customHeight="1" spans="1:23">
       <c r="A6" s="24" t="s">
@@ -1935,27 +1852,27 @@
       <c r="F6" s="23"/>
       <c r="G6" s="23"/>
       <c r="H6" s="23"/>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="29" t="s">
+      <c r="J6" s="32"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="34" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="P6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="R6" s="34"/>
-      <c r="S6" s="34"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="42"/>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
     </row>
     <row r="7" ht="32.25" customHeight="1" spans="1:23">
       <c r="A7" s="24"/>
@@ -1968,21 +1885,21 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="23"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="29"/>
-      <c r="M7" s="29"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="34"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="R7" s="34"/>
-      <c r="S7" s="34"/>
-      <c r="T7" s="34"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="28"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
     </row>
     <row r="8" ht="32.25" customHeight="1" spans="1:19">
       <c r="A8" s="24"/>
@@ -1995,18 +1912,18 @@
       <c r="F8" s="23"/>
       <c r="G8" s="23"/>
       <c r="H8" s="23"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="M8" s="35" t="s">
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="M8" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
     </row>
     <row r="9" ht="32.25" customHeight="1" spans="1:19">
       <c r="A9" s="22" t="s">
@@ -2021,18 +1938,18 @@
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="M9" s="35" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="M9" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
     </row>
     <row r="10" ht="32.25" customHeight="1" spans="1:19">
       <c r="A10" s="22"/>
@@ -2043,18 +1960,18 @@
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="M10" s="35" t="s">
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="M10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
     </row>
     <row r="11" ht="32.25" customHeight="1" spans="1:13">
       <c r="A11" s="22" t="s">
@@ -2069,11 +1986,11 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="23"/>
-      <c r="I11" s="33" t="s">
+      <c r="I11" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
       <c r="M11" t="s">
         <v>36</v>
       </c>
@@ -2087,23 +2004,23 @@
       <c r="F12" s="23"/>
       <c r="G12" s="23"/>
       <c r="H12" s="23"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="M12" s="38" t="s">
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="M12" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
-      <c r="Q12" s="38"/>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
-      <c r="V12" s="38"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="38"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="36"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="40">
